--- a/public/documents/invoice/invoicing-excel-template.xlsx
+++ b/public/documents/invoice/invoicing-excel-template.xlsx
@@ -109,9 +109,6 @@
     <t>AD303</t>
   </si>
   <si>
-    <t>Sarah Davis</t>
-  </si>
-  <si>
     <t>1011 Birch Boulevard, Townsville</t>
   </si>
   <si>
@@ -121,10 +118,13 @@
     <t>Quality never goes out of style.</t>
   </si>
   <si>
-    <t>1011 Birch Boulevard, Townsville | 10105 | 24billions@gmail.com</t>
-  </si>
-  <si>
     <t>Invoice :</t>
+  </si>
+  <si>
+    <t>1011 Birch Boulevard, Townsville | 10105 |harrytechcraft@gmail.com</t>
+  </si>
+  <si>
+    <t>Harry Tech Craft</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode=";;;"/>
-    <numFmt numFmtId="168" formatCode="[$₹-4009]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$₹-4009]\ #,##0.00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -530,6 +530,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,15 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -558,44 +558,6 @@
     <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Segoe UI"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$₹-4009]\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Segoe UI"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="[$₹-4009]\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -612,7 +574,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -620,6 +582,25 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$₹-4009]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -644,6 +625,25 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Segoe UI"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$₹-4009]\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1109,8 +1109,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Qty" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" name="Description" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Unit Price" totalsRowLabel="Total" dataDxfId="1" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Line Total" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="2">
+    <tableColumn id="3" name="Unit Price" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Line Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</calculatedColumnFormula>
       <totalsRowFormula>IF(SUM(E27)&gt;0,SUM((E27*E28)+E27),"")</totalsRowFormula>
     </tableColumn>
@@ -1356,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1385,10 +1385,10 @@
       <c r="A2" s="18"/>
       <c r="B2" s="39"/>
       <c r="C2" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="20"/>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="17"/>
@@ -1397,10 +1397,10 @@
       <c r="A3" s="18"/>
       <c r="B3" s="39"/>
       <c r="C3" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="20"/>
-      <c r="E3" s="59"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
       <c r="B4" s="40"/>
       <c r="C4" s="56"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="59"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="59"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1433,14 +1433,14 @@
         <v>15</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="45">
         <f ca="1">TODAY()</f>
-        <v>45873</v>
+        <v>45881</v>
       </c>
       <c r="F7" s="17"/>
     </row>
@@ -1448,10 +1448,10 @@
       <c r="A8" s="25"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="48">
         <v>1243</v>
@@ -1564,10 +1564,10 @@
       <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <v>32</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="57">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v>96</v>
       </c>
@@ -1581,10 +1581,10 @@
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="57">
         <v>9</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="57">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v>702</v>
       </c>
@@ -1598,10 +1598,10 @@
       <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="57">
         <v>4</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="57">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v>372</v>
       </c>
@@ -1611,8 +1611,8 @@
       <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="str">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1622,8 +1622,8 @@
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60" t="str">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1633,8 +1633,8 @@
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1644,8 +1644,8 @@
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60" t="str">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60" t="str">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1666,8 +1666,8 @@
       <c r="A25" s="18"/>
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60" t="str">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1677,8 +1677,8 @@
       <c r="A26" s="18"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61" t="str">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58" t="str">
         <f>IFERROR(IF(InvoiceDetails[[#This Row],[Qty]]="","",InvoiceDetails[[#This Row],[Qty]]*InvoiceDetails[[#This Row],[Unit Price]]), "")</f>
         <v/>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="57">
         <f>IF(SUM(InvoiceDetails[Line Total])&gt;0,SUM(InvoiceDetails[Line Total]),"")</f>
         <v>1170</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="D29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="59">
         <f>IF(E27=0,"",E27*(1+E28))</f>
         <v>1170</v>
       </c>
@@ -1730,33 +1730,33 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
-      <c r="B31" s="58" t="str">
+      <c r="B31" s="61" t="str">
         <f>"Make all checks payable to " &amp; $C$2</f>
         <v>Make all checks payable to 24billions Valley Farms</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,15 +2117,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2143,6 +2134,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2167,14 +2167,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC5BE7D-8FB0-43CD-96B9-3135123127CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2186,6 +2178,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7C1696-6E99-4221-BCBD-CC938784C941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>